--- a/medicine/Pharmacie/Thrombolyse/Thrombolyse.xlsx
+++ b/medicine/Pharmacie/Thrombolyse/Thrombolyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thrombolyse consiste à lyser (désagréger) par médicament les thrombus (caillots sanguins) obstruant les vaisseaux sanguins. Ce traitement reproduit de façon artificielle le phénomène physiologique de fibrinolyse.
 </t>
@@ -511,10 +523,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois principales indications de ce traitement d'urgence sont l'embolie pulmonaire[1], l'infarctus du myocarde et l'accident vasculaire cérébral ischémique[2],[3].
-Traitement classique de première intention des infarctus du myocarde récent, il est réservé aux formes sévères des embolies pulmonaires, et tend à se généraliser dans la prise en charge précoce (premières heures[4],[3]) des AVC ischémiques peu étendus. Le bénéfice attendu de ce traitement d'urgence est la reperfusion tissulaire d'aval, en vue d'améliorer le pronostic fonctionnel et vital, mais au prix d'un risque incompressible d'hémorragies rares mais redoutables.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois principales indications de ce traitement d'urgence sont l'embolie pulmonaire, l'infarctus du myocarde et l'accident vasculaire cérébral ischémique,.
+Traitement classique de première intention des infarctus du myocarde récent, il est réservé aux formes sévères des embolies pulmonaires, et tend à se généraliser dans la prise en charge précoce (premières heures,) des AVC ischémiques peu étendus. Le bénéfice attendu de ce traitement d'urgence est la reperfusion tissulaire d'aval, en vue d'améliorer le pronostic fonctionnel et vital, mais au prix d'un risque incompressible d'hémorragies rares mais redoutables.
 En pratique, le produit est injecté par voie veineuse périphérique ou intra-artérielle sélective.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un professeur de médecine, William Tillet (en) (1892-1974)[5], découvre presque par hasard en 1933 qu'un enzyme appelé streptokinase peut dissoudre un caillot de sang. D'autres découvertes ont été faites par la suite à ce sujet. Une grande étude auprès de 11 000 patients a été publiée en 1986 par The Lancet[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un professeur de médecine, William Tillet (en) (1892-1974), découvre presque par hasard en 1933 qu'un enzyme appelé streptokinase peut dissoudre un caillot de sang. D'autres découvertes ont été faites par la suite à ce sujet. Une grande étude auprès de 11 000 patients a été publiée en 1986 par The Lancet.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Médicaments thrombolytiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Streptokinase[1]
-Urokinase[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Streptokinase
+Urokinase
 Altéplase (Actilyse) : forme recombinante de l'activateur tissulaire du plasminogène
 Retéplase (en)
 Ténectéplase (Metalyse) : forme modifiée de l'activateur tissulaire du plasminogène.</t>
@@ -609,7 +627,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces médicaments miment l'action de l'urokinase et de l'activateur tissulaire du plasminogène naturels (protéines de la fibrinolyse qui activent le plasminogène en plasmine).
 </t>
@@ -640,7 +660,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le risque principal est celui d'une hémorragie (tout saignement important ou toute chirurgie récente contre-indiquent la thrombolyse).
 Il existe aussi un risque allergique avec la streptokinase.
